--- a/CASES/05_Challenge_Data/01_Data/AUX_CIGRE_Net_DER.xlsx
+++ b/CASES/05_Challenge_Data/01_Data/AUX_CIGRE_Net_DER.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="1" state="visible" r:id="rId2"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="58">
   <si>
     <t xml:space="preserve">Module 
 Auxiliary Services</t>
@@ -668,7 +668,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -757,7 +757,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -830,6 +830,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -969,6 +973,971 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" guid="{78DB7340-613F-4ED3-9C1D-262FB22FE367}">
+  <header guid="{2059EC17-7703-4B3B-9799-AE4C76727E90}" dateTime="2021-07-27T22:31:00.000000000Z" userName=" " r:id="rId1" minRId="1" maxRId="1" maxSheetId="10">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B17FAB65-1614-4B6D-A784-E42D98F37E29}" dateTime="2021-07-27T22:32:00.000000000Z" userName=" " r:id="rId2" minRId="2" maxRId="12" maxSheetId="10">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{46C237E7-2523-419D-BC47-4A75D95CD34B}" dateTime="2021-07-27T22:33:00.000000000Z" userName=" " r:id="rId3" minRId="13" maxRId="29" maxSheetId="10">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{15992A68-D515-4487-8E08-4AD814C1559A}" dateTime="2021-07-27T22:34:00.000000000Z" userName=" " r:id="rId4" minRId="30" maxRId="38" maxSheetId="10">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6BEEF81A-CCC8-4B7A-A48A-4D8B9468CB1C}" dateTime="2021-07-27T22:35:00.000000000Z" userName=" " r:id="rId5" minRId="39" maxRId="57" maxSheetId="10">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{78DB7340-613F-4ED3-9C1D-262FB22FE367}" dateTime="2021-07-27T22:36:00.000000000Z" userName=" " r:id="rId6" minRId="58" maxRId="59" maxSheetId="10">
+    <sheetIdMap count="9">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="1" ua="false" sId="5">
+    <nc r="C3" t="n">
+      <v>1</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="2" ua="false" sId="5">
+    <nc r="A3" t="n">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="3" ua="false" sId="5">
+    <nc r="B3" t="e">
+      <f>VLOOKUP(C2,,2)</f>
+    </nc>
+  </rcc>
+  <rcc rId="4" ua="false" sId="5">
+    <nc r="D3" t="n">
+      <f>VLOOKUP(C3,,3)</f>
+    </nc>
+  </rcc>
+  <rcc rId="5" ua="false" sId="5">
+    <nc r="E3" t="n">
+      <v>42116</v>
+    </nc>
+  </rcc>
+  <rcc rId="6" ua="false" sId="5">
+    <nc r="F3" t="n">
+      <f>_xlfn.IFS(AND(COUNTIF(G3:J3,"Yes")=4, ( K3="No")),0,AND(COUNTIF(G3:J3,"Yes")=4, ( K3="Yes")),1,AND(COUNTIF(G3:J3,"No")&lt;=2, COUNTIF(G3:J3,"No")&gt;=1),2,AND(COUNTIF(G3:J3,"No")&gt;2, ( L3="Yes")),3,AND(COUNTIF(G3:J3,"No")&gt;2, ( L3="No")),4)</f>
+    </nc>
+  </rcc>
+  <rcc rId="7" ua="false" sId="5">
+    <nc r="G3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="8" ua="false" sId="5">
+    <nc r="H3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="9" ua="false" sId="5">
+    <nc r="I3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="10" ua="false" sId="5">
+    <nc r="J3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="11" ua="false" sId="5">
+    <nc r="K3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="12" ua="false" sId="5">
+    <nc r="L3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">No</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="13" ua="false" sId="5">
+    <oc r="D3" t="n">
+      <f>VLOOKUP(C3,,3)</f>
+    </oc>
+    <nc r="D3" t="e">
+      <f>VLOOKUP(C2,,3)</f>
+    </nc>
+  </rcc>
+  <rcc rId="14" ua="false" sId="5">
+    <oc r="D3" t="n">
+      <f>VLOOKUP(C2,,3)</f>
+    </oc>
+    <nc r="D3" t="e">
+      <f>VLOOKUP(C3,,3)</f>
+    </nc>
+  </rcc>
+  <rcc rId="15" ua="false" sId="5">
+    <oc r="B3" t="n">
+      <f>VLOOKUP(C2,,2)</f>
+    </oc>
+    <nc r="B3" t="e">
+      <f>VLOOKUP(C3,,2)</f>
+    </nc>
+  </rcc>
+  <rcc rId="16" ua="false" sId="5">
+    <oc r="H3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="H3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">No</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="17" ua="false" sId="5">
+    <oc r="E3" t="n">
+      <v>42116</v>
+    </oc>
+    <nc r="E3" t="n">
+      <v>43212</v>
+    </nc>
+  </rcc>
+  <rcc rId="18" ua="false" sId="6">
+    <nc r="A3" t="n">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="19" ua="false" sId="6">
+    <nc r="B3" t="n">
+      <f>VLOOKUP(C3,,2)</f>
+    </nc>
+  </rcc>
+  <rcc rId="20" ua="false" sId="6">
+    <nc r="C3" t="n">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="21" ua="false" sId="6">
+    <nc r="D3" t="n">
+      <f>VLOOKUP(C3,,3)</f>
+    </nc>
+  </rcc>
+  <rcc rId="22" ua="false" sId="6">
+    <nc r="E3" t="n">
+      <v>42116</v>
+    </nc>
+  </rcc>
+  <rcc rId="23" ua="false" sId="6">
+    <nc r="F3" t="n">
+      <f>_xlfn.IFS(AND(COUNTIF(G3:J3,"Yes")=4, ( K3="No")),0,AND(COUNTIF(G3:J3,"Yes")=4, ( K3="Yes")),1,AND(COUNTIF(G3:J3,"No")&lt;=2, COUNTIF(G3:J3,"No")&gt;=1),2,AND(COUNTIF(G3:J3,"No")&gt;2, ( L3="Yes")),3,AND(COUNTIF(G3:J3,"No")&gt;2, ( L3="No")),4)</f>
+    </nc>
+  </rcc>
+  <rcc rId="24" ua="false" sId="6">
+    <nc r="G3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="25" ua="false" sId="6">
+    <nc r="H3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="26" ua="false" sId="6">
+    <nc r="I3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="27" ua="false" sId="6">
+    <nc r="J3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="28" ua="false" sId="6">
+    <nc r="K3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="29" ua="false" sId="6">
+    <nc r="L3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">No</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="30" ua="false" sId="6">
+    <oc r="B3" t="n">
+      <f>VLOOKUP(C3,,2)</f>
+    </oc>
+    <nc r="B3" t="e">
+      <f>VLOOKUP(C3,,2)</f>
+    </nc>
+  </rcc>
+  <rcc rId="31" ua="false" sId="6">
+    <oc r="D3" t="n">
+      <f>VLOOKUP(C3,,3)</f>
+    </oc>
+    <nc r="D3" t="e">
+      <f>VLOOKUP(C3,,3)</f>
+    </nc>
+  </rcc>
+  <rcc rId="32" ua="false" sId="6">
+    <oc r="H3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="H3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">No</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="33" ua="false" sId="6">
+    <oc r="I3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="I3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">No</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="34" ua="false" sId="6">
+    <oc r="J3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="J3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">No</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="35" ua="false" sId="6">
+    <oc r="I3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">No</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="I3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="36" ua="false" sId="6">
+    <oc r="K3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="K3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">No</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="37" ua="false" sId="6">
+    <oc r="L3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">No</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="L3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="38" ua="false" sId="6">
+    <oc r="H3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">No</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="H3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="39" ua="false" sId="6">
+    <oc r="J3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">No</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="J3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="40" ua="false" sId="6">
+    <oc r="K3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">No</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="K3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="41" ua="false" sId="6">
+    <oc r="G3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="G3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">No</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="42" ua="false" sId="6">
+    <oc r="H3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="H3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">No</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="43" ua="false" sId="6">
+    <oc r="I3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="I3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">No</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="44" ua="false" sId="7">
+    <nc r="A3" t="n">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="45" ua="false" sId="7">
+    <nc r="B3" t="n">
+      <f>VLOOKUP(C3,,2)</f>
+    </nc>
+  </rcc>
+  <rcc rId="46" ua="false" sId="7">
+    <nc r="C3" t="n">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="47" ua="false" sId="7">
+    <nc r="D3" t="n">
+      <f>VLOOKUP(C3,,3)</f>
+    </nc>
+  </rcc>
+  <rcc rId="48" ua="false" sId="7">
+    <nc r="E3" t="n">
+      <v>42116</v>
+    </nc>
+  </rcc>
+  <rcc rId="49" ua="false" sId="7">
+    <nc r="F3" t="n">
+      <f>_xlfn.IFS(AND(COUNTIF(G3:J3,"Yes")=4, ( K3="No")),0,AND(COUNTIF(G3:J3,"Yes")=4, ( K3="Yes")),1,AND(COUNTIF(G3:J3,"No")&lt;=2, COUNTIF(G3:J3,"No")&gt;=1),2,AND(COUNTIF(G3:J3,"No")&gt;2, ( L3="Yes")),3,AND(COUNTIF(G3:J3,"No")&gt;2, ( L3="No")),4)</f>
+    </nc>
+  </rcc>
+  <rcc rId="50" ua="false" sId="7">
+    <nc r="G3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="51" ua="false" sId="7">
+    <nc r="H3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="52" ua="false" sId="7">
+    <nc r="I3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="53" ua="false" sId="7">
+    <nc r="J3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="54" ua="false" sId="7">
+    <nc r="K3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yes</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="55" ua="false" sId="7">
+    <nc r="L3" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">No</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="56" ua="false" sId="7">
+    <oc r="B3" t="n">
+      <f>VLOOKUP(C3,,2)</f>
+    </oc>
+    <nc r="B3" t="e">
+      <f>VLOOKUP(C3,,2)</f>
+    </nc>
+  </rcc>
+  <rcc rId="57" ua="false" sId="7">
+    <oc r="D3" t="n">
+      <f>VLOOKUP(C3,,3)</f>
+    </oc>
+    <nc r="D3" t="e">
+      <f>VLOOKUP(C3,,3)</f>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rcc rId="58" ua="false" sId="6">
+    <oc r="E3" t="n">
+      <v>42116</v>
+    </oc>
+    <nc r="E3" t="n">
+      <v>43577</v>
+    </nc>
+  </rcc>
+  <rcc rId="59" ua="false" sId="7">
+    <oc r="E3" t="n">
+      <v>42116</v>
+    </oc>
+    <nc r="E3" t="n">
+      <v>43943</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="0"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1185,7 +2154,7 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -1343,8 +2312,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2581,8 +3550,8 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2663,25 +3632,69 @@
       </c>
       <c r="G2" s="32" t="n">
         <f aca="false" t="array" ref="G2:G2">_xlfn.IFS(AND(COUNTIF(H2:K2,"Yes")=4, ( L2="No")),0,AND(COUNTIF(H2:K2,"Yes")=4, ( L2="Yes")),1,AND(COUNTIF(H2:K2,"No")&lt;=2, COUNTIF(H2:K2,"No")&gt;=1),2,AND(COUNTIF(H2:K2,"No")&gt;2, ( M2="Yes")),3,AND(COUNTIF(H2:K2,"No")&gt;2, ( M2="No")),4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" s="40" t="s">
         <v>43</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" s="40" t="s">
         <v>44</v>
       </c>
       <c r="M2" s="40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="str">
+        <f aca="false">VLOOKUP(C3,AUX!$C$2:$D$2,2)</f>
+        <v>Aux_0</v>
+      </c>
+      <c r="C3" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19" t="str">
+        <f aca="false">VLOOKUP(C3,AUX!$C$2:$E$2,3)</f>
+        <v>BOG_1</v>
+      </c>
+      <c r="E3" s="30" t="n">
+        <v>43943</v>
+      </c>
+      <c r="F3" s="31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="32" t="n">
+        <f aca="false" t="array" ref="G3:G3">_xlfn.IFS(AND(COUNTIF(H3:K3,"Yes")=4, ( L3="No")),0,AND(COUNTIF(H3:K3,"Yes")=4, ( L3="Yes")),1,AND(COUNTIF(H3:K3,"No")&lt;=2, COUNTIF(H3:K3,"No")&gt;=1),2,AND(COUNTIF(H3:K3,"No")&gt;2, ( M3="Yes")),3,AND(COUNTIF(H3:K3,"No")&gt;2, ( M3="No")),4)</f>
+        <v>3</v>
+      </c>
+      <c r="H3" s="40" t="s">
         <v>43</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2809,7 +3822,7 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="notBetween" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:M2" type="list">
+    <dataValidation allowBlank="true" operator="notBetween" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:M3" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2829,10 +3842,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2927,19 +3940,46 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="34" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="41" t="str">
+        <f aca="false">VLOOKUP(C3,AUX!C2:D2,2)</f>
+        <v>Aux_0</v>
+      </c>
+      <c r="C3" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19" t="str">
+        <f aca="false">VLOOKUP(C3,AUX!C2:E2,3)</f>
+        <v>BOG_1</v>
+      </c>
+      <c r="E3" s="30" t="n">
+        <v>43212</v>
+      </c>
+      <c r="F3" s="32" t="n">
+        <f aca="false" t="array" ref="F3:F3">_xlfn.IFS(AND(COUNTIF(G3:J3,"Yes")=4, ( K3="No")),0,AND(COUNTIF(G3:J3,"Yes")=4, ( K3="Yes")),1,AND(COUNTIF(G3:J3,"No")&lt;=2, COUNTIF(G3:J3,"No")&gt;=1),2,AND(COUNTIF(G3:J3,"No")&gt;2, ( L3="Yes")),3,AND(COUNTIF(G3:J3,"No")&gt;2, ( L3="No")),4)</f>
+        <v>2</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34"/>
@@ -3338,7 +4378,7 @@
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
-      <c r="E32" s="41"/>
+      <c r="E32" s="42"/>
       <c r="F32" s="38"/>
       <c r="G32" s="39"/>
       <c r="H32" s="39"/>
@@ -3702,7 +4742,7 @@
       <c r="B58" s="35"/>
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
-      <c r="E58" s="41"/>
+      <c r="E58" s="42"/>
       <c r="F58" s="38"/>
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
@@ -3741,7 +4781,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="34"/>
-      <c r="B61" s="42"/>
+      <c r="B61" s="43"/>
       <c r="C61" s="37"/>
       <c r="D61" s="35"/>
       <c r="E61" s="30"/>
@@ -3755,7 +4795,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="34"/>
-      <c r="B62" s="42"/>
+      <c r="B62" s="43"/>
       <c r="C62" s="37"/>
       <c r="D62" s="35"/>
       <c r="E62" s="30"/>
@@ -3769,7 +4809,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="34"/>
-      <c r="B63" s="42"/>
+      <c r="B63" s="43"/>
       <c r="C63" s="37"/>
       <c r="D63" s="35"/>
       <c r="E63" s="30"/>
@@ -3783,7 +4823,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="34"/>
-      <c r="B64" s="42"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="37"/>
       <c r="D64" s="35"/>
       <c r="E64" s="30"/>
@@ -3795,9 +4835,10 @@
       <c r="K64" s="39"/>
       <c r="L64" s="39"/>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="notBetween" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:L2" type="list">
+    <dataValidation allowBlank="true" operator="notBetween" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:L3" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3820,7 +4861,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3915,19 +4956,46 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="str">
+        <f aca="false">VLOOKUP(C3,AUX!C2:D2,2)</f>
+        <v>Aux_0</v>
+      </c>
+      <c r="C3" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19" t="str">
+        <f aca="false">VLOOKUP(C3,AUX!C2:E2,3)</f>
+        <v>BOG_1</v>
+      </c>
+      <c r="E3" s="30" t="n">
+        <v>43577</v>
+      </c>
+      <c r="F3" s="32" t="n">
+        <f aca="false" t="array" ref="F3:F3">_xlfn.IFS(AND(COUNTIF(G3:J3,"Yes")=4, ( K3="No")),0,AND(COUNTIF(G3:J3,"Yes")=4, ( K3="Yes")),1,AND(COUNTIF(G3:J3,"No")&lt;=2, COUNTIF(G3:J3,"No")&gt;=1),2,AND(COUNTIF(G3:J3,"No")&gt;2, ( L3="Yes")),3,AND(COUNTIF(G3:J3,"No")&gt;2, ( L3="No")),4)</f>
+        <v>3</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34"/>
@@ -4326,7 +5394,7 @@
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
-      <c r="E32" s="41"/>
+      <c r="E32" s="42"/>
       <c r="F32" s="38"/>
       <c r="G32" s="39"/>
       <c r="H32" s="39"/>
@@ -4690,7 +5758,7 @@
       <c r="B58" s="35"/>
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
-      <c r="E58" s="41"/>
+      <c r="E58" s="42"/>
       <c r="F58" s="38"/>
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
@@ -4729,7 +5797,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="34"/>
-      <c r="B61" s="42"/>
+      <c r="B61" s="43"/>
       <c r="C61" s="37"/>
       <c r="D61" s="35"/>
       <c r="E61" s="30"/>
@@ -4743,7 +5811,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="34"/>
-      <c r="B62" s="42"/>
+      <c r="B62" s="43"/>
       <c r="C62" s="37"/>
       <c r="D62" s="35"/>
       <c r="E62" s="30"/>
@@ -4757,7 +5825,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="34"/>
-      <c r="B63" s="42"/>
+      <c r="B63" s="43"/>
       <c r="C63" s="37"/>
       <c r="D63" s="35"/>
       <c r="E63" s="30"/>
@@ -4771,7 +5839,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="34"/>
-      <c r="B64" s="42"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="37"/>
       <c r="D64" s="35"/>
       <c r="E64" s="30"/>
@@ -4785,7 +5853,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="notBetween" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:L2" type="list">
+    <dataValidation allowBlank="true" operator="notBetween" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:L3" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4808,7 +5876,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4903,19 +5971,46 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="str">
+        <f aca="false">VLOOKUP(C3,AUX!C2:D2,2)</f>
+        <v>Aux_0</v>
+      </c>
+      <c r="C3" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="19" t="str">
+        <f aca="false">VLOOKUP(C3,AUX!C2:E2,3)</f>
+        <v>BOG_1</v>
+      </c>
+      <c r="E3" s="30" t="n">
+        <v>43943</v>
+      </c>
+      <c r="F3" s="32" t="n">
+        <f aca="false" t="array" ref="F3:F3">_xlfn.IFS(AND(COUNTIF(G3:J3,"Yes")=4, ( K3="No")),0,AND(COUNTIF(G3:J3,"Yes")=4, ( K3="Yes")),1,AND(COUNTIF(G3:J3,"No")&lt;=2, COUNTIF(G3:J3,"No")&gt;=1),2,AND(COUNTIF(G3:J3,"No")&gt;2, ( L3="Yes")),3,AND(COUNTIF(G3:J3,"No")&gt;2, ( L3="No")),4)</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34"/>
@@ -5314,7 +6409,7 @@
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
-      <c r="E32" s="41"/>
+      <c r="E32" s="42"/>
       <c r="F32" s="38"/>
       <c r="G32" s="39"/>
       <c r="H32" s="39"/>
@@ -5678,7 +6773,7 @@
       <c r="B58" s="35"/>
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
-      <c r="E58" s="41"/>
+      <c r="E58" s="42"/>
       <c r="F58" s="38"/>
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
@@ -5717,7 +6812,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="34"/>
-      <c r="B61" s="42"/>
+      <c r="B61" s="43"/>
       <c r="C61" s="37"/>
       <c r="D61" s="35"/>
       <c r="E61" s="30"/>
@@ -5731,7 +6826,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="34"/>
-      <c r="B62" s="42"/>
+      <c r="B62" s="43"/>
       <c r="C62" s="37"/>
       <c r="D62" s="35"/>
       <c r="E62" s="30"/>
@@ -5745,7 +6840,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="34"/>
-      <c r="B63" s="42"/>
+      <c r="B63" s="43"/>
       <c r="C63" s="37"/>
       <c r="D63" s="35"/>
       <c r="E63" s="30"/>
@@ -5759,7 +6854,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="34"/>
-      <c r="B64" s="42"/>
+      <c r="B64" s="43"/>
       <c r="C64" s="37"/>
       <c r="D64" s="35"/>
       <c r="E64" s="30"/>
@@ -5773,7 +6868,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="notBetween" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:L2" type="list">
+    <dataValidation allowBlank="true" operator="notBetween" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:L3" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5799,62 +6894,62 @@
       <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="100.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="47" t="n">
+      <c r="B3" s="48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="49" t="n">
+      <c r="B4" s="50" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="51" t="n">
+      <c r="B5" s="52" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="53" t="n">
+      <c r="B6" s="54" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="55" t="n">
+      <c r="B7" s="56" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5883,7 +6978,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
